--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value252.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value252.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.132473607054893</v>
+        <v>1.246696352958679</v>
       </c>
       <c r="B1">
-        <v>1.191389866758234</v>
+        <v>2.240676164627075</v>
       </c>
       <c r="C1">
-        <v>1.339053996280401</v>
+        <v>2.884564161300659</v>
       </c>
       <c r="D1">
-        <v>2.054109197514462</v>
+        <v>3.342852830886841</v>
       </c>
       <c r="E1">
-        <v>3.76902991437127</v>
+        <v>1.931156635284424</v>
       </c>
     </row>
   </sheetData>
